--- a/global_data/day_data/002586.xlsx
+++ b/global_data/day_data/002586.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3168"/>
+  <dimension ref="A1:I3170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -92280,6 +92282,64 @@
         <v>0.01135337062085648</v>
       </c>
     </row>
+    <row r="3169" spans="1:9">
+      <c r="A3169" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3169">
+        <v>3.03</v>
+      </c>
+      <c r="C3169">
+        <v>3.14</v>
+      </c>
+      <c r="D3169">
+        <v>3.03</v>
+      </c>
+      <c r="E3169">
+        <v>3.04</v>
+      </c>
+      <c r="F3169">
+        <v>8093600</v>
+      </c>
+      <c r="G3169">
+        <v>24989747</v>
+      </c>
+      <c r="H3169">
+        <v>896920799</v>
+      </c>
+      <c r="I3169">
+        <v>0.009023762197313032</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:9">
+      <c r="A3170" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3170">
+        <v>3.1</v>
+      </c>
+      <c r="C3170">
+        <v>3.15</v>
+      </c>
+      <c r="D3170">
+        <v>3.04</v>
+      </c>
+      <c r="E3170">
+        <v>3.13</v>
+      </c>
+      <c r="F3170">
+        <v>8021000</v>
+      </c>
+      <c r="G3170">
+        <v>24757825</v>
+      </c>
+      <c r="H3170">
+        <v>896920799</v>
+      </c>
+      <c r="I3170">
+        <v>0.00894281859551347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
